--- a/Apples.xlsx
+++ b/Apples.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunomelgar/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ipbpt-my.sharepoint.com/personal/bruno_melgarc_ipb_pt/Documents/Personal/Hub Cloud/Nest/1000 CIMO/1100 Subareas/Stats/2 PCA Stats/Joana/Apples Github/Apples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145F7E08-A83E-3E47-8171-4416CC6DB777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{145F7E08-A83E-3E47-8171-4416CC6DB777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8D87C4F-E72A-FB4A-9047-70DB1443482F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26220" yWindow="-24180" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw data" sheetId="1" r:id="rId1"/>
@@ -70,12 +70,6 @@
     <t>CO2</t>
   </si>
   <si>
-    <t>Coliformes</t>
-  </si>
-  <si>
-    <t>Fungos</t>
-  </si>
-  <si>
     <t>Texture (Strenght))</t>
   </si>
   <si>
@@ -83,12 +77,6 @@
   </si>
   <si>
     <t>FRAP</t>
-  </si>
-  <si>
-    <t>Ftotais</t>
-  </si>
-  <si>
-    <t>Bacterias</t>
   </si>
   <si>
     <t>Aditivo</t>
@@ -161,6 +149,18 @@
   </si>
   <si>
     <t>point T2=</t>
+  </si>
+  <si>
+    <t>Fungi</t>
+  </si>
+  <si>
+    <t>Coliforms</t>
+  </si>
+  <si>
+    <t>Bacteria</t>
+  </si>
+  <si>
+    <t>Total Phenolics</t>
   </si>
 </sst>
 </file>
@@ -638,6 +638,120 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1015,6 +1129,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1034,6 +1149,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1053,6 +1169,267 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1525,383 +1902,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -11977,58 +11977,58 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{88CE61E2-9703-F545-8DE3-B54F5D83C9BF}" name="Tabla14" displayName="Tabla14" ref="A1:T74" totalsRowCount="1" headerRowDxfId="85" dataDxfId="84">
   <autoFilter ref="A1:T73" xr:uid="{DCFF7DF7-102F-F442-BDD6-33246A07D181}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{4858D43D-41B5-9846-BA20-7E6E87E70E70}" name="Sample" dataDxfId="83" totalsRowDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{C0962AD1-51DB-0F49-9114-E1C1B043BAE6}" name="Antiox" dataDxfId="81" totalsRowDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{2BC81D59-E1C2-B54C-A599-4D250F65146B}" name="Cover" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{4858D43D-41B5-9846-BA20-7E6E87E70E70}" name="Sample" dataDxfId="83" totalsRowDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{C0962AD1-51DB-0F49-9114-E1C1B043BAE6}" name="Antiox" dataDxfId="82" totalsRowDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{2BC81D59-E1C2-B54C-A599-4D250F65146B}" name="Cover" dataDxfId="81" totalsRowDxfId="38"/>
     <tableColumn id="4" xr3:uid="{2DF3CC7A-40E3-3C4A-A511-B7D13AB312AA}" name="Day"/>
-    <tableColumn id="8" xr3:uid="{70F6F266-2ECF-DC47-9C99-2671935E1657}" name="L" dataDxfId="77" totalsRowDxfId="76"/>
-    <tableColumn id="9" xr3:uid="{2282986E-80D6-1747-BD76-E169C300E087}" name="a" dataDxfId="75" totalsRowDxfId="74"/>
-    <tableColumn id="10" xr3:uid="{B5BE019A-19DE-5241-87BD-FC26B2B62758}" name="b" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="11" xr3:uid="{807FE878-1B1B-7F4A-8287-884CB138FBDF}" name="c" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="12" xr3:uid="{63E59CF6-598D-854A-8527-0D519B9C3DA0}" name="AE" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="13" xr3:uid="{E31A1615-DD31-0447-9BC9-B2837B92E1E2}" name="h" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="14" xr3:uid="{9073372E-3AAD-9047-8B2D-806E8D19DE89}" name="O2" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="15" xr3:uid="{364843EF-E714-4540-8D23-77A058DCBFAA}" name="CO2" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="16" xr3:uid="{9E4C6C8B-F17D-9644-8520-E980A37F3701}" name="Weight_loss" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="17" xr3:uid="{8269BD98-8058-914F-ABCF-A3D847478289}" name="Texture (Strenght)" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="18" xr3:uid="{FB7BBB80-DBCC-CA4C-8C30-F3992F2CE75C}" name="Coliformes" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="19" xr3:uid="{D61CE221-997F-0143-B280-F5F1D76B68FE}" name="Fungos" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="20" xr3:uid="{AB69F93E-0AF0-444D-BCEA-4FA4AACEA70B}" name="Bacterias" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="21" xr3:uid="{CB61FAB8-14E1-484C-96CA-CF1394E9E3DC}" name="DPPH" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="22" xr3:uid="{C5FA9DA5-ADA3-1740-B3F2-11B76ACCF832}" name="FRAP" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="23" xr3:uid="{301E1FC5-FD7D-2640-A5FE-953FBB3B30D4}" name="Ftotais" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{70F6F266-2ECF-DC47-9C99-2671935E1657}" name="L" dataDxfId="80" totalsRowDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{2282986E-80D6-1747-BD76-E169C300E087}" name="a" dataDxfId="79" totalsRowDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{B5BE019A-19DE-5241-87BD-FC26B2B62758}" name="b" dataDxfId="78" totalsRowDxfId="35"/>
+    <tableColumn id="11" xr3:uid="{807FE878-1B1B-7F4A-8287-884CB138FBDF}" name="c" dataDxfId="77" totalsRowDxfId="34"/>
+    <tableColumn id="12" xr3:uid="{63E59CF6-598D-854A-8527-0D519B9C3DA0}" name="AE" dataDxfId="76" totalsRowDxfId="33"/>
+    <tableColumn id="13" xr3:uid="{E31A1615-DD31-0447-9BC9-B2837B92E1E2}" name="h" dataDxfId="75" totalsRowDxfId="32"/>
+    <tableColumn id="14" xr3:uid="{9073372E-3AAD-9047-8B2D-806E8D19DE89}" name="O2" dataDxfId="74" totalsRowDxfId="31"/>
+    <tableColumn id="15" xr3:uid="{364843EF-E714-4540-8D23-77A058DCBFAA}" name="CO2" dataDxfId="73" totalsRowDxfId="30"/>
+    <tableColumn id="16" xr3:uid="{9E4C6C8B-F17D-9644-8520-E980A37F3701}" name="Weight_loss" dataDxfId="72" totalsRowDxfId="29"/>
+    <tableColumn id="17" xr3:uid="{8269BD98-8058-914F-ABCF-A3D847478289}" name="Texture (Strenght)" dataDxfId="71" totalsRowDxfId="28"/>
+    <tableColumn id="18" xr3:uid="{FB7BBB80-DBCC-CA4C-8C30-F3992F2CE75C}" name="Coliforms" dataDxfId="70" totalsRowDxfId="27"/>
+    <tableColumn id="19" xr3:uid="{D61CE221-997F-0143-B280-F5F1D76B68FE}" name="Fungi" dataDxfId="69" totalsRowDxfId="26"/>
+    <tableColumn id="20" xr3:uid="{AB69F93E-0AF0-444D-BCEA-4FA4AACEA70B}" name="Bacteria" dataDxfId="68" totalsRowDxfId="25"/>
+    <tableColumn id="21" xr3:uid="{CB61FAB8-14E1-484C-96CA-CF1394E9E3DC}" name="DPPH" dataDxfId="67" totalsRowDxfId="24"/>
+    <tableColumn id="22" xr3:uid="{C5FA9DA5-ADA3-1740-B3F2-11B76ACCF832}" name="FRAP" dataDxfId="66" totalsRowDxfId="23"/>
+    <tableColumn id="23" xr3:uid="{301E1FC5-FD7D-2640-A5FE-953FBB3B30D4}" name="Total Phenolics" dataDxfId="65" totalsRowDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCFF7DF7-102F-F442-BDD6-33246A07D181}" name="Tabla1" displayName="Tabla1" ref="A1:W74" totalsRowCount="1" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCFF7DF7-102F-F442-BDD6-33246A07D181}" name="Tabla1" displayName="Tabla1" ref="A1:W74" totalsRowCount="1" headerRowDxfId="64" dataDxfId="63">
   <autoFilter ref="A1:W73" xr:uid="{DCFF7DF7-102F-F442-BDD6-33246A07D181}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{9F866108-7F0C-4448-B62E-3F61D66F084F}" name="Sample" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{1850B905-8592-2E4A-A4D6-B111A2B252C0}" name="Antiox" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{F6904C6E-5CE1-FA4B-9A06-42C4DB57E9E8}" name="Cover" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{9F866108-7F0C-4448-B62E-3F61D66F084F}" name="Sample" dataDxfId="62" totalsRowDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{1850B905-8592-2E4A-A4D6-B111A2B252C0}" name="Antiox" dataDxfId="61" totalsRowDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{F6904C6E-5CE1-FA4B-9A06-42C4DB57E9E8}" name="Cover" dataDxfId="60" totalsRowDxfId="19"/>
     <tableColumn id="4" xr3:uid="{7E8EED34-EF0D-AD40-B19F-8B90D9B7578A}" name="Day"/>
-    <tableColumn id="5" xr3:uid="{96A5DF35-2875-BA46-900C-363D67D68E70}" name="Aditivo" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{3C7168F5-8C9F-2748-9B20-394A9B633633}" name="Saco" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{9835239B-C832-BA4F-8D2A-770561D54AE5}" name="Tempo" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{9255201E-8765-3440-B782-AB9473306A51}" name="L" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{1CA3C574-8BFB-0447-80C6-DD3E122FBE97}" name="a" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{CE3357C8-0C4A-3C4E-83E4-685A3523C880}" name="b" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{CA6F76E4-791F-8B48-A0C8-24806B0CACB9}" name="c" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{CC7ADDA6-4E20-1943-8AF8-B1BF2383EAC1}" name="AE" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{F00CE802-CC1F-8F4B-ACF8-0D27DDECB5CA}" name="h" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="14" xr3:uid="{931A38F1-748F-4242-BA86-9F63CF882470}" name="O2" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="15" xr3:uid="{0BBAFE04-6641-8F4D-AEE8-44C734A0FC1B}" name="CO2" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="16" xr3:uid="{4A634454-E532-1743-8A30-318F0CA8986E}" name="Weight_loss" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="17" xr3:uid="{B022F502-3726-0146-B116-132BEA4EB940}" name="Texture (Strenght)" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="18" xr3:uid="{0CC17401-377F-4943-B977-84F976FD4094}" name="Coliformes" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="19" xr3:uid="{3B511465-6C16-F74C-B5EE-3A2A9693C1F7}" name="Fungos" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="20" xr3:uid="{59285762-640E-0C40-9259-D808EFEB2423}" name="Bacterias" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="21" xr3:uid="{A44D6A81-3502-A442-9F92-C59DB46C968A}" name="DPPH" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="22" xr3:uid="{3F762B11-039E-2A4B-ABE8-B6BF5C77EB79}" name="FRAP" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="23" xr3:uid="{B7ED9502-9600-C04C-9740-17DBCF660282}" name="Ftotais" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{96A5DF35-2875-BA46-900C-363D67D68E70}" name="Aditivo" dataDxfId="59" totalsRowDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{3C7168F5-8C9F-2748-9B20-394A9B633633}" name="Saco" dataDxfId="58" totalsRowDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{9835239B-C832-BA4F-8D2A-770561D54AE5}" name="Tempo" dataDxfId="57" totalsRowDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{9255201E-8765-3440-B782-AB9473306A51}" name="L" dataDxfId="56" totalsRowDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{1CA3C574-8BFB-0447-80C6-DD3E122FBE97}" name="a" dataDxfId="55" totalsRowDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{CE3357C8-0C4A-3C4E-83E4-685A3523C880}" name="b" dataDxfId="54" totalsRowDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{CA6F76E4-791F-8B48-A0C8-24806B0CACB9}" name="c" dataDxfId="53" totalsRowDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{CC7ADDA6-4E20-1943-8AF8-B1BF2383EAC1}" name="AE" dataDxfId="52" totalsRowDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{F00CE802-CC1F-8F4B-ACF8-0D27DDECB5CA}" name="h" dataDxfId="51" totalsRowDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{931A38F1-748F-4242-BA86-9F63CF882470}" name="O2" dataDxfId="50" totalsRowDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{0BBAFE04-6641-8F4D-AEE8-44C734A0FC1B}" name="CO2" dataDxfId="49" totalsRowDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{4A634454-E532-1743-8A30-318F0CA8986E}" name="Weight_loss" dataDxfId="48" totalsRowDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{B022F502-3726-0146-B116-132BEA4EB940}" name="Texture (Strenght)" dataDxfId="47" totalsRowDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{0CC17401-377F-4943-B977-84F976FD4094}" name="Coliforms" dataDxfId="46" totalsRowDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{3B511465-6C16-F74C-B5EE-3A2A9693C1F7}" name="Fungi" dataDxfId="45" totalsRowDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{59285762-640E-0C40-9259-D808EFEB2423}" name="Bacteria" dataDxfId="44" totalsRowDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{A44D6A81-3502-A442-9F92-C59DB46C968A}" name="DPPH" dataDxfId="43" totalsRowDxfId="2"/>
+    <tableColumn id="22" xr3:uid="{3F762B11-039E-2A4B-ABE8-B6BF5C77EB79}" name="FRAP" dataDxfId="42" totalsRowDxfId="1"/>
+    <tableColumn id="23" xr3:uid="{B7ED9502-9600-C04C-9740-17DBCF660282}" name="Total Phenolics" dataDxfId="41" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12301,7 +12301,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:K1048576"/>
+      <selection pane="bottomLeft" activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12318,21 +12318,23 @@
     <col min="16" max="16" width="8.83203125" style="2"/>
     <col min="17" max="17" width="11.5" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.83203125" style="3"/>
-    <col min="19" max="16384" width="8.83203125" style="2"/>
+    <col min="19" max="19" width="8.83203125" style="2"/>
+    <col min="20" max="20" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -12350,7 +12352,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>8</v>
@@ -12359,36 +12361,36 @@
         <v>9</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="T1" s="4" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -12441,10 +12443,10 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -12497,10 +12499,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -12553,10 +12555,10 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -12597,10 +12599,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
@@ -12638,10 +12640,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1</v>
@@ -12679,10 +12681,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
@@ -12720,10 +12722,10 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>1</v>
@@ -12761,10 +12763,10 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
@@ -12799,10 +12801,10 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
@@ -12831,10 +12833,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>1</v>
@@ -12863,10 +12865,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1</v>
@@ -12895,10 +12897,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>1</v>
@@ -12927,10 +12929,10 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>1</v>
@@ -12959,10 +12961,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>1</v>
@@ -12991,10 +12993,10 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>1</v>
@@ -13023,10 +13025,10 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>1</v>
@@ -13055,10 +13057,10 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>1</v>
@@ -13087,10 +13089,10 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>1</v>
@@ -13116,10 +13118,10 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>1</v>
@@ -13145,10 +13147,10 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>1</v>
@@ -13174,10 +13176,10 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>1</v>
@@ -13200,10 +13202,10 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>1</v>
@@ -13238,10 +13240,10 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>1</v>
@@ -13288,10 +13290,10 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>1</v>
@@ -13338,10 +13340,10 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>1</v>
@@ -13388,10 +13390,10 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>1</v>
@@ -13432,10 +13434,10 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>1</v>
@@ -13476,10 +13478,10 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>1</v>
@@ -13520,10 +13522,10 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>1</v>
@@ -13564,10 +13566,10 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>1</v>
@@ -13608,10 +13610,10 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>1</v>
@@ -13649,10 +13651,10 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>1</v>
@@ -13684,10 +13686,10 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>1</v>
@@ -13719,10 +13721,10 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>1</v>
@@ -13754,10 +13756,10 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>1</v>
@@ -13786,10 +13788,10 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>1</v>
@@ -13815,10 +13817,10 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>1</v>
@@ -13851,10 +13853,10 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>1</v>
@@ -13910,10 +13912,10 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>1</v>
@@ -13969,10 +13971,10 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>1</v>
@@ -14028,10 +14030,10 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>1</v>
@@ -14078,10 +14080,10 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>1</v>
@@ -14125,10 +14127,10 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>1</v>
@@ -14172,10 +14174,10 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>1</v>
@@ -14216,10 +14218,10 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>1</v>
@@ -14260,10 +14262,10 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>1</v>
@@ -14301,10 +14303,10 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>1</v>
@@ -14336,10 +14338,10 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>1</v>
@@ -14365,10 +14367,10 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>1</v>
@@ -14391,10 +14393,10 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>1</v>
@@ -14414,10 +14416,10 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>1</v>
@@ -14437,10 +14439,10 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>1</v>
@@ -14473,10 +14475,10 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>1</v>
@@ -14526,10 +14528,10 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>1</v>
@@ -14579,10 +14581,10 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>1</v>
@@ -14626,10 +14628,10 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>1</v>
@@ -14670,10 +14672,10 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>1</v>
@@ -14714,10 +14716,10 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>1</v>
@@ -14758,10 +14760,10 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>1</v>
@@ -14802,10 +14804,10 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>1</v>
@@ -14846,10 +14848,10 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>1</v>
@@ -14887,10 +14889,10 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>1</v>
@@ -14919,10 +14921,10 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>1</v>
@@ -14948,10 +14950,10 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>1</v>
@@ -14977,10 +14979,10 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>1</v>
@@ -15006,10 +15008,10 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>1</v>
@@ -15035,10 +15037,10 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>1</v>
@@ -15073,10 +15075,10 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>1</v>
@@ -15126,10 +15128,10 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>1</v>
@@ -15179,10 +15181,10 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>1</v>
@@ -15226,10 +15228,10 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>1</v>
@@ -15270,10 +15272,10 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>1</v>
@@ -15314,10 +15316,10 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>1</v>
@@ -15358,10 +15360,10 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>1</v>
@@ -15402,10 +15404,10 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>1</v>
@@ -15446,10 +15448,10 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>1</v>
@@ -15487,10 +15489,10 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>1</v>
@@ -15522,10 +15524,10 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>1</v>
@@ -15557,10 +15559,10 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>1</v>
@@ -15592,10 +15594,10 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>1</v>
@@ -15627,10 +15629,10 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>1</v>
@@ -15659,10 +15661,10 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>1</v>
@@ -15697,10 +15699,10 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>1</v>
@@ -15750,10 +15752,10 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>1</v>
@@ -15803,10 +15805,10 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>1</v>
@@ -15856,10 +15858,10 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>1</v>
@@ -15906,10 +15908,10 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>1</v>
@@ -15956,10 +15958,10 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>1</v>
@@ -16006,10 +16008,10 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>1</v>
@@ -16053,10 +16055,10 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>1</v>
@@ -16097,10 +16099,10 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>1</v>
@@ -16138,10 +16140,10 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>1</v>
@@ -16170,10 +16172,10 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>1</v>
@@ -16202,10 +16204,10 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>1</v>
@@ -16234,10 +16236,10 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>1</v>
@@ -16263,10 +16265,10 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>1</v>
@@ -16303,13 +16305,13 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -16359,13 +16361,13 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -16415,13 +16417,13 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -16471,13 +16473,13 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -16518,13 +16520,13 @@
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -16565,13 +16567,13 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -16609,13 +16611,13 @@
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -16653,13 +16655,13 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -16697,13 +16699,13 @@
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -16735,13 +16737,13 @@
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -16767,13 +16769,13 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -16799,13 +16801,13 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -16831,13 +16833,13 @@
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -16863,13 +16865,13 @@
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -16895,13 +16897,13 @@
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -16927,13 +16929,13 @@
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -16959,13 +16961,13 @@
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -16991,13 +16993,13 @@
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -17023,13 +17025,13 @@
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -17052,13 +17054,13 @@
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -17081,13 +17083,13 @@
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -17110,13 +17112,13 @@
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -17136,13 +17138,13 @@
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -17170,13 +17172,13 @@
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D122">
         <v>2</v>
@@ -17220,13 +17222,13 @@
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -17270,13 +17272,13 @@
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -17317,13 +17319,13 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D125">
         <v>2</v>
@@ -17361,13 +17363,13 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D126">
         <v>2</v>
@@ -17402,13 +17404,13 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -17437,13 +17439,13 @@
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D128">
         <v>2</v>
@@ -17469,13 +17471,13 @@
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D129">
         <v>2</v>
@@ -17501,13 +17503,13 @@
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D130">
         <v>2</v>
@@ -17530,13 +17532,13 @@
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D131">
         <v>2</v>
@@ -17550,13 +17552,13 @@
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D132">
         <v>2</v>
@@ -17570,13 +17572,13 @@
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D133">
         <v>2</v>
@@ -17590,13 +17592,13 @@
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D134">
         <v>2</v>
@@ -17607,13 +17609,13 @@
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D135">
         <v>2</v>
@@ -17639,13 +17641,13 @@
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D136">
         <v>5</v>
@@ -17698,13 +17700,13 @@
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D137">
         <v>5</v>
@@ -17757,13 +17759,13 @@
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D138">
         <v>5</v>
@@ -17816,13 +17818,13 @@
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D139">
         <v>5</v>
@@ -17866,13 +17868,13 @@
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D140">
         <v>5</v>
@@ -17916,13 +17918,13 @@
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D141">
         <v>5</v>
@@ -17966,13 +17968,13 @@
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D142">
         <v>5</v>
@@ -18013,13 +18015,13 @@
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D143">
         <v>5</v>
@@ -18060,13 +18062,13 @@
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D144">
         <v>5</v>
@@ -18101,13 +18103,13 @@
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D145">
         <v>5</v>
@@ -18133,13 +18135,13 @@
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D146">
         <v>5</v>
@@ -18165,13 +18167,13 @@
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D147">
         <v>5</v>
@@ -18197,13 +18199,13 @@
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D148">
         <v>5</v>
@@ -18226,13 +18228,13 @@
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D149">
         <v>5</v>
@@ -18252,13 +18254,13 @@
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D150">
         <v>5</v>
@@ -18288,13 +18290,13 @@
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D151">
         <v>7</v>
@@ -18341,13 +18343,13 @@
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D152">
         <v>7</v>
@@ -18394,13 +18396,13 @@
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D153">
         <v>7</v>
@@ -18444,13 +18446,13 @@
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D154">
         <v>7</v>
@@ -18488,13 +18490,13 @@
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D155">
         <v>7</v>
@@ -18532,13 +18534,13 @@
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D156">
         <v>7</v>
@@ -18576,13 +18578,13 @@
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D157">
         <v>7</v>
@@ -18620,13 +18622,13 @@
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D158">
         <v>7</v>
@@ -18664,13 +18666,13 @@
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D159">
         <v>7</v>
@@ -18702,13 +18704,13 @@
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D160">
         <v>7</v>
@@ -18734,13 +18736,13 @@
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D161">
         <v>7</v>
@@ -18763,13 +18765,13 @@
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D162">
         <v>7</v>
@@ -18789,13 +18791,13 @@
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D163">
         <v>7</v>
@@ -18825,13 +18827,13 @@
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D164">
         <v>9</v>
@@ -18878,13 +18880,13 @@
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D165">
         <v>9</v>
@@ -18931,13 +18933,13 @@
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D166">
         <v>9</v>
@@ -18981,13 +18983,13 @@
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D167">
         <v>9</v>
@@ -19025,13 +19027,13 @@
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D168">
         <v>9</v>
@@ -19069,13 +19071,13 @@
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D169">
         <v>9</v>
@@ -19113,13 +19115,13 @@
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D170">
         <v>9</v>
@@ -19151,13 +19153,13 @@
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D171">
         <v>9</v>
@@ -19189,13 +19191,13 @@
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D172">
         <v>9</v>
@@ -19224,13 +19226,13 @@
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D173">
         <v>9</v>
@@ -19250,13 +19252,13 @@
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D174">
         <v>9</v>
@@ -19273,13 +19275,13 @@
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D175">
         <v>9</v>
@@ -19296,13 +19298,13 @@
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D176">
         <v>9</v>
@@ -19332,13 +19334,13 @@
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D177">
         <v>12</v>
@@ -19391,13 +19393,13 @@
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D178">
         <v>12</v>
@@ -19450,13 +19452,13 @@
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D179">
         <v>12</v>
@@ -19506,13 +19508,13 @@
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D180">
         <v>12</v>
@@ -19553,13 +19555,13 @@
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D181">
         <v>12</v>
@@ -19600,13 +19602,13 @@
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D182">
         <v>12</v>
@@ -19647,13 +19649,13 @@
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D183">
         <v>12</v>
@@ -19682,13 +19684,13 @@
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D184">
         <v>12</v>
@@ -19717,13 +19719,13 @@
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D185">
         <v>12</v>
@@ -19749,13 +19751,13 @@
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D186">
         <v>12</v>
@@ -19772,13 +19774,13 @@
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D187">
         <v>12</v>
@@ -19808,10 +19810,10 @@
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>1</v>
@@ -19864,10 +19866,10 @@
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>1</v>
@@ -19920,10 +19922,10 @@
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>1</v>
@@ -19976,10 +19978,10 @@
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>1</v>
@@ -20023,10 +20025,10 @@
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>1</v>
@@ -20067,10 +20069,10 @@
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>1</v>
@@ -20108,10 +20110,10 @@
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>1</v>
@@ -20149,10 +20151,10 @@
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>1</v>
@@ -20190,10 +20192,10 @@
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>1</v>
@@ -20228,10 +20230,10 @@
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>1</v>
@@ -20260,10 +20262,10 @@
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>1</v>
@@ -20292,10 +20294,10 @@
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>1</v>
@@ -20324,10 +20326,10 @@
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>1</v>
@@ -20353,10 +20355,10 @@
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>1</v>
@@ -20382,10 +20384,10 @@
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>1</v>
@@ -20411,10 +20413,10 @@
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>1</v>
@@ -20437,10 +20439,10 @@
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>1</v>
@@ -20471,10 +20473,10 @@
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>1</v>
@@ -20521,10 +20523,10 @@
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>1</v>
@@ -20571,10 +20573,10 @@
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>1</v>
@@ -20621,10 +20623,10 @@
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>1</v>
@@ -20665,10 +20667,10 @@
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>1</v>
@@ -20709,10 +20711,10 @@
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>1</v>
@@ -20753,10 +20755,10 @@
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>1</v>
@@ -20797,10 +20799,10 @@
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>1</v>
@@ -20835,10 +20837,10 @@
     </row>
     <row r="213" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>1</v>
@@ -20873,10 +20875,10 @@
     </row>
     <row r="214" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>1</v>
@@ -20905,10 +20907,10 @@
     </row>
     <row r="215" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>1</v>
@@ -20937,10 +20939,10 @@
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>1</v>
@@ -20966,10 +20968,10 @@
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>1</v>
@@ -20992,10 +20994,10 @@
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>1</v>
@@ -21015,10 +21017,10 @@
     </row>
     <row r="219" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>1</v>
@@ -21051,10 +21053,10 @@
     </row>
     <row r="220" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>1</v>
@@ -21113,10 +21115,10 @@
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>1</v>
@@ -21175,10 +21177,10 @@
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>1</v>
@@ -21234,10 +21236,10 @@
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>1</v>
@@ -21287,10 +21289,10 @@
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>1</v>
@@ -21340,10 +21342,10 @@
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>1</v>
@@ -21393,10 +21395,10 @@
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>1</v>
@@ -21446,10 +21448,10 @@
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>1</v>
@@ -21496,10 +21498,10 @@
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>1</v>
@@ -21543,10 +21545,10 @@
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>1</v>
@@ -21578,10 +21580,10 @@
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>1</v>
@@ -21613,10 +21615,10 @@
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>1</v>
@@ -21645,10 +21647,10 @@
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>1</v>
@@ -21674,10 +21676,10 @@
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>1</v>
@@ -21703,10 +21705,10 @@
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>1</v>
@@ -21741,10 +21743,10 @@
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>1</v>
@@ -21794,10 +21796,10 @@
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>1</v>
@@ -21847,10 +21849,10 @@
     </row>
     <row r="237" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>1</v>
@@ -21897,10 +21899,10 @@
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>1</v>
@@ -21941,10 +21943,10 @@
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>1</v>
@@ -21985,10 +21987,10 @@
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>1</v>
@@ -22029,10 +22031,10 @@
     </row>
     <row r="241" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>1</v>
@@ -22073,10 +22075,10 @@
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>1</v>
@@ -22117,10 +22119,10 @@
     </row>
     <row r="243" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>1</v>
@@ -22158,10 +22160,10 @@
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>1</v>
@@ -22193,10 +22195,10 @@
     </row>
     <row r="245" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>1</v>
@@ -22228,10 +22230,10 @@
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>1</v>
@@ -22263,10 +22265,10 @@
     </row>
     <row r="247" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>1</v>
@@ -22298,10 +22300,10 @@
     </row>
     <row r="248" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>1</v>
@@ -22330,10 +22332,10 @@
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>1</v>
@@ -22368,10 +22370,10 @@
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>1</v>
@@ -22421,10 +22423,10 @@
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>1</v>
@@ -22474,10 +22476,10 @@
     </row>
     <row r="252" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>1</v>
@@ -22527,10 +22529,10 @@
     </row>
     <row r="253" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>1</v>
@@ -22571,10 +22573,10 @@
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>1</v>
@@ -22615,10 +22617,10 @@
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>1</v>
@@ -22659,10 +22661,10 @@
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>1</v>
@@ -22703,10 +22705,10 @@
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>1</v>
@@ -22747,10 +22749,10 @@
     </row>
     <row r="258" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>1</v>
@@ -22788,10 +22790,10 @@
     </row>
     <row r="259" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>1</v>
@@ -22823,10 +22825,10 @@
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>1</v>
@@ -22858,10 +22860,10 @@
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>1</v>
@@ -22890,10 +22892,10 @@
     </row>
     <row r="262" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>1</v>
@@ -22916,10 +22918,10 @@
     </row>
     <row r="263" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>1</v>
@@ -22942,10 +22944,10 @@
     </row>
     <row r="264" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>1</v>
@@ -22965,10 +22967,10 @@
     </row>
     <row r="265" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>1</v>
@@ -22988,10 +22990,10 @@
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>1</v>
@@ -23024,10 +23026,10 @@
     </row>
     <row r="267" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>1</v>
@@ -23086,10 +23088,10 @@
     </row>
     <row r="268" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>1</v>
@@ -23148,10 +23150,10 @@
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>1</v>
@@ -23169,7 +23171,7 @@
         <v>25.88</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I269" s="2">
         <v>3.45</v>
@@ -23204,10 +23206,10 @@
     </row>
     <row r="270" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>1</v>
@@ -23257,10 +23259,10 @@
     </row>
     <row r="271" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>1</v>
@@ -23307,10 +23309,10 @@
     </row>
     <row r="272" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>1</v>
@@ -23357,10 +23359,10 @@
     </row>
     <row r="273" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>1</v>
@@ -23407,10 +23409,10 @@
     </row>
     <row r="274" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>1</v>
@@ -23454,10 +23456,10 @@
     </row>
     <row r="275" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>1</v>
@@ -23498,10 +23500,10 @@
     </row>
     <row r="276" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>1</v>
@@ -23536,10 +23538,10 @@
     </row>
     <row r="277" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>1</v>
@@ -23574,10 +23576,10 @@
     </row>
     <row r="278" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>1</v>
@@ -23612,10 +23614,10 @@
     </row>
     <row r="279" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>1</v>
@@ -23647,10 +23649,10 @@
     </row>
     <row r="280" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>1</v>
@@ -23679,10 +23681,10 @@
     </row>
     <row r="281" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>1</v>
@@ -23715,13 +23717,13 @@
     </row>
     <row r="282" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -23771,13 +23773,13 @@
     </row>
     <row r="283" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -23827,13 +23829,13 @@
     </row>
     <row r="284" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -23883,13 +23885,13 @@
     </row>
     <row r="285" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -23930,13 +23932,13 @@
     </row>
     <row r="286" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -23977,13 +23979,13 @@
     </row>
     <row r="287" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -24024,13 +24026,13 @@
     </row>
     <row r="288" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -24071,13 +24073,13 @@
     </row>
     <row r="289" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -24118,13 +24120,13 @@
     </row>
     <row r="290" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -24159,13 +24161,13 @@
     </row>
     <row r="291" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -24191,13 +24193,13 @@
     </row>
     <row r="292" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -24223,13 +24225,13 @@
     </row>
     <row r="293" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -24255,13 +24257,13 @@
     </row>
     <row r="294" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -24284,13 +24286,13 @@
     </row>
     <row r="295" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -24313,13 +24315,13 @@
     </row>
     <row r="296" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -24342,13 +24344,13 @@
     </row>
     <row r="297" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -24368,13 +24370,13 @@
     </row>
     <row r="298" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -24402,13 +24404,13 @@
     </row>
     <row r="299" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D299">
         <v>2</v>
@@ -24452,13 +24454,13 @@
     </row>
     <row r="300" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D300">
         <v>2</v>
@@ -24502,13 +24504,13 @@
     </row>
     <row r="301" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D301">
         <v>2</v>
@@ -24549,13 +24551,13 @@
     </row>
     <row r="302" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D302">
         <v>2</v>
@@ -24593,13 +24595,13 @@
     </row>
     <row r="303" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D303">
         <v>2</v>
@@ -24637,13 +24639,13 @@
     </row>
     <row r="304" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D304">
         <v>2</v>
@@ -24681,13 +24683,13 @@
     </row>
     <row r="305" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D305">
         <v>2</v>
@@ -24725,13 +24727,13 @@
     </row>
     <row r="306" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D306">
         <v>2</v>
@@ -24769,13 +24771,13 @@
     </row>
     <row r="307" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D307">
         <v>2</v>
@@ -24807,13 +24809,13 @@
     </row>
     <row r="308" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D308">
         <v>2</v>
@@ -24839,13 +24841,13 @@
     </row>
     <row r="309" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D309">
         <v>2</v>
@@ -24871,13 +24873,13 @@
     </row>
     <row r="310" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D310">
         <v>2</v>
@@ -24897,13 +24899,13 @@
     </row>
     <row r="311" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D311">
         <v>2</v>
@@ -24923,13 +24925,13 @@
     </row>
     <row r="312" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D312">
         <v>2</v>
@@ -24946,13 +24948,13 @@
     </row>
     <row r="313" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D313">
         <v>2</v>
@@ -24982,13 +24984,13 @@
     </row>
     <row r="314" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D314">
         <v>5</v>
@@ -25044,13 +25046,13 @@
     </row>
     <row r="315" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D315">
         <v>5</v>
@@ -25106,13 +25108,13 @@
     </row>
     <row r="316" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D316">
         <v>5</v>
@@ -25165,13 +25167,13 @@
     </row>
     <row r="317" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D317">
         <v>5</v>
@@ -25218,13 +25220,13 @@
     </row>
     <row r="318" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D318">
         <v>5</v>
@@ -25271,13 +25273,13 @@
     </row>
     <row r="319" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D319">
         <v>5</v>
@@ -25324,13 +25326,13 @@
     </row>
     <row r="320" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D320">
         <v>5</v>
@@ -25374,13 +25376,13 @@
     </row>
     <row r="321" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D321">
         <v>5</v>
@@ -25424,13 +25426,13 @@
     </row>
     <row r="322" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D322">
         <v>5</v>
@@ -25471,13 +25473,13 @@
     </row>
     <row r="323" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D323">
         <v>5</v>
@@ -25506,13 +25508,13 @@
     </row>
     <row r="324" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D324">
         <v>5</v>
@@ -25535,13 +25537,13 @@
     </row>
     <row r="325" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D325">
         <v>5</v>
@@ -25561,13 +25563,13 @@
     </row>
     <row r="326" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D326">
         <v>5</v>
@@ -25584,13 +25586,13 @@
     </row>
     <row r="327" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D327">
         <v>5</v>
@@ -25607,13 +25609,13 @@
     </row>
     <row r="328" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D328">
         <v>5</v>
@@ -25641,13 +25643,13 @@
     </row>
     <row r="329" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D329">
         <v>7</v>
@@ -25694,13 +25696,13 @@
     </row>
     <row r="330" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D330">
         <v>7</v>
@@ -25747,13 +25749,13 @@
     </row>
     <row r="331" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D331">
         <v>7</v>
@@ -25794,13 +25796,13 @@
     </row>
     <row r="332" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D332">
         <v>7</v>
@@ -25838,13 +25840,13 @@
     </row>
     <row r="333" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D333">
         <v>7</v>
@@ -25882,13 +25884,13 @@
     </row>
     <row r="334" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D334">
         <v>7</v>
@@ -25926,13 +25928,13 @@
     </row>
     <row r="335" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D335">
         <v>7</v>
@@ -25970,13 +25972,13 @@
     </row>
     <row r="336" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D336">
         <v>7</v>
@@ -26014,13 +26016,13 @@
     </row>
     <row r="337" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D337">
         <v>7</v>
@@ -26055,13 +26057,13 @@
     </row>
     <row r="338" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D338">
         <v>7</v>
@@ -26090,13 +26092,13 @@
     </row>
     <row r="339" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D339">
         <v>7</v>
@@ -26119,13 +26121,13 @@
     </row>
     <row r="340" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D340">
         <v>7</v>
@@ -26142,13 +26144,13 @@
     </row>
     <row r="341" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D341">
         <v>7</v>
@@ -26165,13 +26167,13 @@
     </row>
     <row r="342" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D342">
         <v>7</v>
@@ -26188,13 +26190,13 @@
     </row>
     <row r="343" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D343">
         <v>7</v>
@@ -26224,13 +26226,13 @@
     </row>
     <row r="344" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D344">
         <v>9</v>
@@ -26277,13 +26279,13 @@
     </row>
     <row r="345" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D345">
         <v>9</v>
@@ -26330,13 +26332,13 @@
     </row>
     <row r="346" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D346">
         <v>9</v>
@@ -26380,13 +26382,13 @@
     </row>
     <row r="347" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D347">
         <v>9</v>
@@ -26424,13 +26426,13 @@
     </row>
     <row r="348" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D348">
         <v>9</v>
@@ -26468,13 +26470,13 @@
     </row>
     <row r="349" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D349">
         <v>9</v>
@@ -26512,13 +26514,13 @@
     </row>
     <row r="350" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D350">
         <v>9</v>
@@ -26556,13 +26558,13 @@
     </row>
     <row r="351" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D351">
         <v>9</v>
@@ -26600,13 +26602,13 @@
     </row>
     <row r="352" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D352">
         <v>9</v>
@@ -26641,13 +26643,13 @@
     </row>
     <row r="353" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D353">
         <v>9</v>
@@ -26676,13 +26678,13 @@
     </row>
     <row r="354" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D354">
         <v>9</v>
@@ -26711,13 +26713,13 @@
     </row>
     <row r="355" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D355">
         <v>9</v>
@@ -26746,13 +26748,13 @@
     </row>
     <row r="356" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D356">
         <v>9</v>
@@ -26778,13 +26780,13 @@
     </row>
     <row r="357" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D357">
         <v>9</v>
@@ -26807,13 +26809,13 @@
     </row>
     <row r="358" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D358">
         <v>9</v>
@@ -26843,13 +26845,13 @@
     </row>
     <row r="359" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D359">
         <v>12</v>
@@ -26905,13 +26907,13 @@
     </row>
     <row r="360" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D360">
         <v>12</v>
@@ -26967,13 +26969,13 @@
     </row>
     <row r="361" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D361">
         <v>12</v>
@@ -27029,13 +27031,13 @@
     </row>
     <row r="362" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D362">
         <v>12</v>
@@ -27079,13 +27081,13 @@
     </row>
     <row r="363" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D363">
         <v>12</v>
@@ -27129,13 +27131,13 @@
     </row>
     <row r="364" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D364">
         <v>12</v>
@@ -27179,13 +27181,13 @@
     </row>
     <row r="365" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D365">
         <v>12</v>
@@ -27223,13 +27225,13 @@
     </row>
     <row r="366" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D366">
         <v>12</v>
@@ -27267,13 +27269,13 @@
     </row>
     <row r="367" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D367">
         <v>12</v>
@@ -27308,13 +27310,13 @@
     </row>
     <row r="368" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D368">
         <v>12</v>
@@ -27343,13 +27345,13 @@
     </row>
     <row r="369" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D369">
         <v>12</v>
@@ -27378,13 +27380,13 @@
     </row>
     <row r="370" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D370">
         <v>12</v>
@@ -27413,13 +27415,13 @@
     </row>
     <row r="371" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D371">
         <v>12</v>
@@ -27442,13 +27444,13 @@
     </row>
     <row r="372" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D372">
         <v>12</v>
@@ -27468,13 +27470,13 @@
     </row>
     <row r="373" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D373">
         <v>12</v>
@@ -27512,7 +27514,7 @@
   <dimension ref="A1:AF86"/>
   <sheetViews>
     <sheetView zoomScale="137" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1048576"/>
+      <selection activeCell="O1" sqref="O1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27533,7 +27535,7 @@
     <col min="17" max="17" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="27" width="8.83203125" style="2"/>
     <col min="28" max="28" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="16384" width="8.83203125" style="2"/>
@@ -27541,16 +27543,16 @@
   <sheetData>
     <row r="1" spans="1:32" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -27568,7 +27570,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -27577,36 +27579,36 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -27663,14 +27665,14 @@
         <v>3.4219324640588429</v>
       </c>
       <c r="AB2" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AC2" s="2">
         <f>(((K50-K53)/K50)*100)</f>
         <v>87.150837988826808</v>
       </c>
       <c r="AE2" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AF2" s="2">
         <f>(K51-((AC5*K51)/100))</f>
@@ -27679,10 +27681,10 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -27739,7 +27741,7 @@
         <v>5.0749516441005804</v>
       </c>
       <c r="AB3" s="13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AC3" s="2">
         <f>(((K51-K55)/K51)*100)</f>
@@ -27748,10 +27750,10 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -27809,7 +27811,7 @@
         <v>6.1466134132135126</v>
       </c>
       <c r="AB4" s="13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AC4" s="2">
         <f>(((K52-K54)/K52)*100)</f>
@@ -27818,10 +27820,10 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -27873,7 +27875,7 @@
         <v>4.1397590361445777</v>
       </c>
       <c r="AB5" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AC5" s="3">
         <f>AVERAGE(AC2:AC4)</f>
@@ -27882,10 +27884,10 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
@@ -27939,10 +27941,10 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1</v>
@@ -27997,10 +27999,10 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
@@ -28059,10 +28061,10 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>1</v>
@@ -28121,10 +28123,10 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
@@ -28185,10 +28187,10 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
@@ -28241,10 +28243,10 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>1</v>
@@ -28297,10 +28299,10 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1</v>
@@ -28355,10 +28357,10 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>1</v>
@@ -28411,10 +28413,10 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>1</v>
@@ -28467,10 +28469,10 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>1</v>
@@ -28525,10 +28527,10 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>1</v>
@@ -28588,10 +28590,10 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>1</v>
@@ -28649,7 +28651,7 @@
         <v>6.5361584523261174</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
@@ -28663,10 +28665,10 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>1</v>
@@ -28727,7 +28729,7 @@
         <v>4.8819547630840354</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
@@ -28741,13 +28743,13 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -28803,13 +28805,13 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -28865,13 +28867,13 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -28929,13 +28931,13 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -28984,20 +28986,20 @@
         <v>5.6861788617886191</v>
       </c>
       <c r="AB23" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AC23" s="13"/>
       <c r="AD23" s="13"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -29046,7 +29048,7 @@
         <v>4.2660775650466372</v>
       </c>
       <c r="AB24" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AC24" s="2">
         <f>-0.0738*(12^2)+1.9137*12+0.0765</f>
@@ -29055,13 +29057,13 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -29115,13 +29117,13 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D26">
         <v>5</v>
@@ -29177,13 +29179,13 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -29239,13 +29241,13 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -29304,13 +29306,13 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D29">
         <v>7</v>
@@ -29360,13 +29362,13 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D30">
         <v>7</v>
@@ -29416,13 +29418,13 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D31">
         <v>7</v>
@@ -29473,13 +29475,13 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D32">
         <v>9</v>
@@ -29529,13 +29531,13 @@
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D33">
         <v>9</v>
@@ -29585,13 +29587,13 @@
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D34">
         <v>9</v>
@@ -29642,13 +29644,13 @@
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D35">
         <v>12</v>
@@ -29704,13 +29706,13 @@
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D36">
         <v>12</v>
@@ -29766,13 +29768,13 @@
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D37">
         <v>12</v>
@@ -29831,10 +29833,10 @@
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>1</v>
@@ -29893,10 +29895,10 @@
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>1</v>
@@ -29955,10 +29957,10 @@
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>1</v>
@@ -30016,17 +30018,17 @@
         <v>5.4645732689210957</v>
       </c>
       <c r="AB40" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AC40" s="13"/>
       <c r="AD40" s="13"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>1</v>
@@ -30078,7 +30080,7 @@
         <v>4.2190569744597246</v>
       </c>
       <c r="AB41" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AC41" s="2">
         <f>0.4312*2</f>
@@ -30087,10 +30089,10 @@
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>1</v>
@@ -30144,10 +30146,10 @@
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>1</v>
@@ -30202,10 +30204,10 @@
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>1</v>
@@ -30264,10 +30266,10 @@
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>1</v>
@@ -30326,10 +30328,10 @@
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>1</v>
@@ -30389,10 +30391,10 @@
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>1</v>
@@ -30445,10 +30447,10 @@
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>1</v>
@@ -30501,10 +30503,10 @@
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>1</v>
@@ -30558,10 +30560,10 @@
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>1</v>
@@ -30614,10 +30616,10 @@
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>1</v>
@@ -30670,10 +30672,10 @@
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>1</v>
@@ -30726,10 +30728,10 @@
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>1</v>
@@ -30788,10 +30790,10 @@
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>1</v>
@@ -30850,10 +30852,10 @@
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>1</v>
@@ -30912,20 +30914,20 @@
         <v>6.8279054916985951</v>
       </c>
       <c r="AB55" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AC55" s="13"/>
       <c r="AD55" s="13"/>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -30979,7 +30981,7 @@
         <v>5.190546287209683</v>
       </c>
       <c r="AB56" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AC56" s="2">
         <f>0.0123*2</f>
@@ -30988,13 +30990,13 @@
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -31050,13 +31052,13 @@
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -31114,13 +31116,13 @@
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -31171,13 +31173,13 @@
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -31228,13 +31230,13 @@
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -31286,13 +31288,13 @@
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D62">
         <v>5</v>
@@ -31348,13 +31350,13 @@
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D63">
         <v>5</v>
@@ -31410,13 +31412,13 @@
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D64">
         <v>5</v>
@@ -31473,13 +31475,13 @@
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D65">
         <v>7</v>
@@ -31529,13 +31531,13 @@
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D66">
         <v>7</v>
@@ -31585,13 +31587,13 @@
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D67">
         <v>7</v>
@@ -31643,13 +31645,13 @@
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D68">
         <v>9</v>
@@ -31699,13 +31701,13 @@
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D69">
         <v>9</v>
@@ -31755,13 +31757,13 @@
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D70">
         <v>9</v>
@@ -31811,20 +31813,20 @@
         <v>6.1940182860684949</v>
       </c>
       <c r="AB70" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AC70" s="13"/>
       <c r="AD70" s="13"/>
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D71">
         <v>12</v>
@@ -31878,7 +31880,7 @@
         <v>7.0442391832766171</v>
       </c>
       <c r="AB71" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AC71" s="2">
         <f>0.993*2</f>
@@ -31887,13 +31889,13 @@
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D72">
         <v>12</v>
@@ -31949,13 +31951,13 @@
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D73">
         <v>12</v>
@@ -32031,14 +32033,14 @@
     </row>
     <row r="85" spans="28:30" x14ac:dyDescent="0.2">
       <c r="AB85" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AC85" s="13"/>
       <c r="AD85" s="13"/>
     </row>
     <row r="86" spans="28:30" x14ac:dyDescent="0.2">
       <c r="AB86" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AC86" s="2">
         <f>0.0123*2</f>
@@ -32059,7 +32061,7 @@
   <dimension ref="A1:W78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32083,25 +32085,25 @@
     <col min="20" max="20" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -32125,7 +32127,7 @@
         <v>7</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
@@ -32134,36 +32136,36 @@
         <v>9</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="V1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -32231,10 +32233,10 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -32293,10 +32295,10 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -32356,10 +32358,10 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -32423,10 +32425,10 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
@@ -32481,10 +32483,10 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1</v>
@@ -32540,10 +32542,10 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
@@ -32611,10 +32613,10 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>1</v>
@@ -32673,10 +32675,10 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
@@ -32737,10 +32739,10 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
@@ -32804,10 +32806,10 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>1</v>
@@ -32862,10 +32864,10 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1</v>
@@ -32922,10 +32924,10 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>1</v>
@@ -32989,10 +32991,10 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>1</v>
@@ -33047,10 +33049,10 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>1</v>
@@ -33107,10 +33109,10 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>1</v>
@@ -33179,10 +33181,10 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>1</v>
@@ -33242,10 +33244,10 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>1</v>
@@ -33308,13 +33310,13 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -33379,13 +33381,13 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -33441,13 +33443,13 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -33505,13 +33507,13 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -33572,13 +33574,13 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -33630,13 +33632,13 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -33691,13 +33693,13 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D26">
         <v>5</v>
@@ -33762,13 +33764,13 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -33824,13 +33826,13 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -33889,13 +33891,13 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D29">
         <v>7</v>
@@ -33956,13 +33958,13 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D30">
         <v>7</v>
@@ -34014,13 +34016,13 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D31">
         <v>7</v>
@@ -34073,13 +34075,13 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D32">
         <v>9</v>
@@ -34140,13 +34142,13 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D33">
         <v>9</v>
@@ -34198,13 +34200,13 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D34">
         <v>9</v>
@@ -34257,13 +34259,13 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D35">
         <v>12</v>
@@ -34328,13 +34330,13 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D36">
         <v>12</v>
@@ -34390,13 +34392,13 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D37">
         <v>12</v>
@@ -34455,10 +34457,10 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>1</v>
@@ -34526,10 +34528,10 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>1</v>
@@ -34588,10 +34590,10 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>1</v>
@@ -34651,10 +34653,10 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>1</v>
@@ -34716,10 +34718,10 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>1</v>
@@ -34772,10 +34774,10 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>1</v>
@@ -34829,10 +34831,10 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>1</v>
@@ -34900,10 +34902,10 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>1</v>
@@ -34962,10 +34964,10 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>1</v>
@@ -35025,10 +35027,10 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>1</v>
@@ -35090,10 +35092,10 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>1</v>
@@ -35146,10 +35148,10 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>1</v>
@@ -35203,10 +35205,10 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>1</v>
@@ -35268,10 +35270,10 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>1</v>
@@ -35324,10 +35326,10 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>1</v>
@@ -35380,10 +35382,10 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>1</v>
@@ -35451,10 +35453,10 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>1</v>
@@ -35513,10 +35515,10 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>1</v>
@@ -35577,13 +35579,13 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -35648,13 +35650,13 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -35710,13 +35712,13 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -35774,13 +35776,13 @@
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -35839,13 +35841,13 @@
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -35895,13 +35897,13 @@
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -35952,13 +35954,13 @@
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D62">
         <v>5</v>
@@ -36023,13 +36025,13 @@
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D63">
         <v>5</v>
@@ -36085,13 +36087,13 @@
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D64">
         <v>5</v>
@@ -36148,13 +36150,13 @@
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D65">
         <v>7</v>
@@ -36213,13 +36215,13 @@
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D66">
         <v>7</v>
@@ -36269,13 +36271,13 @@
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D67">
         <v>7</v>
@@ -36327,13 +36329,13 @@
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D68">
         <v>9</v>
@@ -36392,13 +36394,13 @@
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D69">
         <v>9</v>
@@ -36448,13 +36450,13 @@
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D70">
         <v>9</v>
@@ -36506,13 +36508,13 @@
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D71">
         <v>12</v>
@@ -36577,13 +36579,13 @@
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D72">
         <v>12</v>
@@ -36639,13 +36641,13 @@
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D73">
         <v>12</v>
